--- a/P1 Final/P1 Stroop Effect Analysis.xlsx
+++ b/P1 Final/P1 Stroop Effect Analysis.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will Koehrsen\Python3.6\Udacity Data Analyst\P1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wkoehrse\Documents\Udacity Data Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7728" windowHeight="2808"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8260"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Congruent Histogram" sheetId="7" r:id="rId2"/>
     <sheet name="Incongruent Histogram" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Mean</t>
   </si>
@@ -46,19 +47,7 @@
     <t>Histogram Bins</t>
   </si>
   <si>
-    <t>Congruent (s)</t>
-  </si>
-  <si>
-    <t>Incongruent (s)</t>
-  </si>
-  <si>
-    <t>Differences</t>
-  </si>
-  <si>
     <t>Sample stdev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t-score </t>
   </si>
   <si>
     <t>number of samples</t>
@@ -74,12 +63,6 @@
   </si>
   <si>
     <t>Standard error of the mean</t>
-  </si>
-  <si>
-    <t>Mean of differences</t>
-  </si>
-  <si>
-    <t>Sample standard deviation of the differences</t>
   </si>
   <si>
     <t>95 % CI lower bound</t>
@@ -102,13 +85,34 @@
   <si>
     <t>Cohen's d</t>
   </si>
+  <si>
+    <t>Standard Error of Mean Difference</t>
+  </si>
+  <si>
+    <t>Mean Difference</t>
+  </si>
+  <si>
+    <t>Standard deviation of the differences</t>
+  </si>
+  <si>
+    <t>t-statistic</t>
+  </si>
+  <si>
+    <t>Congruent</t>
+  </si>
+  <si>
+    <t>Incongruent</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -212,7 +216,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
@@ -2656,466 +2660,472 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7265625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="8">
         <f>C27</f>
-        <v>7.9647916666666658</v>
+        <v>7.964791666666664</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
-        <v>8.6300000000000008</v>
+        <v>12.079000000000001</v>
       </c>
       <c r="B2" s="5">
-        <v>15.686999999999999</v>
+        <v>19.277999999999999</v>
       </c>
       <c r="C2" s="5">
         <f>B2-A2</f>
-        <v>7.0569999999999986</v>
+        <v>7.1989999999999981</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8">
         <f>C28</f>
-        <v>1.8726398706491676</v>
+        <v>4.8648269103590565</v>
       </c>
       <c r="H2" s="6">
         <v>7.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
-        <v>8.9870000000000001</v>
+        <v>16.791</v>
       </c>
       <c r="B3" s="5">
-        <v>17.393999999999998</v>
+        <v>18.741</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" ref="C3:C25" si="0">B3-A3</f>
-        <v>8.4069999999999983</v>
+        <v>1.9499999999999993</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" s="7">
-        <f>F1/(F2/SQRT(F4))</f>
-        <v>20.836548229790413</v>
+        <v>24</v>
       </c>
       <c r="H3" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
-        <v>9.4009999999999998</v>
+        <v>9.5640000000000001</v>
       </c>
       <c r="B4" s="5">
-        <v>17.425000000000001</v>
+        <v>21.213999999999999</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>8.0240000000000009</v>
+        <v>11.649999999999999</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="6">
         <v>12.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
-        <v>9.5640000000000001</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="B5" s="5">
-        <v>17.510000000000002</v>
+        <v>15.686999999999999</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>7.9460000000000015</v>
+        <v>7.0569999999999986</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7">
-        <v>23</v>
+        <f>F2/SQRT(F3)</f>
+        <v>0.9930286347783408</v>
       </c>
       <c r="H5" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
-        <v>10.638999999999999</v>
+        <v>14.669</v>
       </c>
       <c r="B6" s="5">
-        <v>17.96</v>
+        <v>22.803000000000001</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>7.3210000000000015</v>
+        <v>8.1340000000000003</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7">
-        <v>1.714</v>
+        <f>F1/F5</f>
+        <v>8.0207069441099534</v>
       </c>
       <c r="H6" s="6">
         <v>17.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
-        <v>11.343999999999999</v>
+        <v>12.238</v>
       </c>
       <c r="B7" s="5">
-        <v>18.643999999999998</v>
+        <v>20.878</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>7.2999999999999989</v>
+        <v>8.64</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F7" s="7">
-        <v>2.069</v>
+        <v>1.714</v>
       </c>
       <c r="H7" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
-        <v>12.079000000000001</v>
+        <v>14.692</v>
       </c>
       <c r="B8" s="5">
-        <v>18.741</v>
+        <v>24.571999999999999</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>6.661999999999999</v>
+        <v>9.879999999999999</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7">
-        <f>F2/SQRT(F4)</f>
-        <v>0.38225101292349617</v>
+        <v>2.069</v>
       </c>
       <c r="H8" s="6">
         <v>22.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
-        <v>12.13</v>
+        <v>8.9870000000000001</v>
       </c>
       <c r="B9" s="5">
-        <v>19.277999999999999</v>
+        <v>17.393999999999998</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>7.1479999999999979</v>
+        <v>8.4069999999999983</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7">
-        <f>F1-F7*F8</f>
-        <v>7.1739143209279526</v>
+        <f>F2/SQRT(F3)</f>
+        <v>0.9930286347783408</v>
       </c>
       <c r="H9" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
-        <v>12.238</v>
+        <v>9.4009999999999998</v>
       </c>
       <c r="B10" s="5">
-        <v>20.329999999999998</v>
+        <v>20.762</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>8.0919999999999987</v>
+        <v>11.361000000000001</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7">
-        <f>F1+F7*F8</f>
-        <v>8.7556690124053791</v>
+        <f>F1-F8*F9</f>
+        <v>5.9102154213102764</v>
       </c>
       <c r="H10" s="6">
         <v>27.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
-        <v>12.369</v>
+        <v>14.48</v>
       </c>
       <c r="B11" s="5">
-        <v>20.428999999999998</v>
+        <v>26.282</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>8.0599999999999987</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>11.802</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7">
+        <f>F1+F8*F9</f>
+        <v>10.019367912023052</v>
       </c>
       <c r="H11" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
-        <v>12.944000000000001</v>
+        <v>22.327999999999999</v>
       </c>
       <c r="B12" s="5">
-        <v>20.762</v>
+        <v>24.524000000000001</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>7.8179999999999996</v>
+        <v>2.1960000000000015</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H12" s="6">
         <v>32.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
-        <v>14.233000000000001</v>
+        <v>15.298</v>
       </c>
       <c r="B13" s="5">
-        <v>20.878</v>
+        <v>18.643999999999998</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>6.6449999999999996</v>
+        <v>3.3459999999999983</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="7">
-        <f>F1/F2</f>
-        <v>4.2532425969898835</v>
+        <v>16</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="H13" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
-        <v>14.48</v>
+        <v>15.073</v>
       </c>
       <c r="B14" s="5">
-        <v>21.157</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>6.6769999999999996</v>
-      </c>
-      <c r="E14" s="5"/>
+        <v>2.4370000000000012</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="7">
+        <f>F1/F2</f>
+        <v>1.6372199491222617</v>
+      </c>
       <c r="H14" s="6">
         <v>37.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
-        <v>14.669</v>
+        <v>16.928999999999998</v>
       </c>
       <c r="B15" s="5">
-        <v>21.213999999999999</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>6.5449999999999982</v>
+        <v>3.4009999999999998</v>
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
-        <v>14.692</v>
+        <v>18.2</v>
       </c>
       <c r="B16" s="5">
-        <v>22.058</v>
+        <v>35.255000000000003</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>7.3659999999999997</v>
+        <v>17.055000000000003</v>
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
-        <v>15.073</v>
+        <v>12.13</v>
       </c>
       <c r="B17" s="5">
         <v>22.158000000000001</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>7.0850000000000009</v>
+        <v>10.028</v>
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
-        <v>15.298</v>
+        <v>18.495000000000001</v>
       </c>
       <c r="B18" s="5">
-        <v>22.803000000000001</v>
+        <v>25.138999999999999</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>7.5050000000000008</v>
+        <v>6.6439999999999984</v>
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
-        <v>16.004000000000001</v>
+        <v>10.638999999999999</v>
       </c>
       <c r="B19" s="5">
-        <v>23.893999999999998</v>
+        <v>20.428999999999998</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>7.889999999999997</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
-        <v>16.791</v>
+        <v>11.343999999999999</v>
       </c>
       <c r="B20" s="5">
-        <v>24.524000000000001</v>
+        <v>17.425000000000001</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>7.7330000000000005</v>
+        <v>6.0810000000000013</v>
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
-        <v>16.928999999999998</v>
+        <v>12.369</v>
       </c>
       <c r="B21" s="5">
-        <v>24.571999999999999</v>
+        <v>34.287999999999997</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>7.6430000000000007</v>
+        <v>21.918999999999997</v>
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
-        <v>18.2</v>
+        <v>12.944000000000001</v>
       </c>
       <c r="B22" s="5">
-        <v>25.138999999999999</v>
+        <v>23.893999999999998</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>6.9390000000000001</v>
+        <v>10.949999999999998</v>
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
-        <v>18.495000000000001</v>
+        <v>14.233000000000001</v>
       </c>
       <c r="B23" s="5">
-        <v>26.282</v>
+        <v>17.96</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>7.786999999999999</v>
+        <v>3.7270000000000003</v>
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>19.71</v>
       </c>
       <c r="B24" s="5">
-        <v>34.287999999999997</v>
+        <v>22.058</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>14.577999999999996</v>
+        <v>2.347999999999999</v>
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
-        <v>22.327999999999999</v>
+        <v>16.004000000000001</v>
       </c>
       <c r="B25" s="5">
-        <v>35.255000000000003</v>
+        <v>21.157</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>12.927000000000003</v>
+        <v>5.1529999999999987</v>
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>AVERAGE(A2:A25)</f>
-        <v>14.051124999999997</v>
+        <v>14.051125000000001</v>
       </c>
       <c r="B27" s="5">
         <f>AVERAGE(B2:B25)</f>
@@ -3123,27 +3133,27 @@
       </c>
       <c r="C27" s="5">
         <f>AVERAGE(C2:C25)</f>
-        <v>7.9647916666666658</v>
+        <v>7.964791666666664</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>_xlfn.STDEV.S(A2:A25)</f>
-        <v>3.5593579576452092</v>
+        <v>3.559357957645187</v>
       </c>
       <c r="B28" s="5">
         <f>_xlfn.STDEV.S(B2:B25)</f>
-        <v>4.7970571224691287</v>
+        <v>4.7970571224691367</v>
       </c>
       <c r="C28" s="5">
         <f>_xlfn.STDEV.S(C2:C25)</f>
-        <v>1.8726398706491676</v>
+        <v>4.8648269103590565</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3162,9 +3172,9 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3172,7 +3182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -3180,7 +3190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>12.5</v>
       </c>
@@ -3188,7 +3198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -3196,7 +3206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>17.5</v>
       </c>
@@ -3204,7 +3214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>20</v>
       </c>
@@ -3212,7 +3222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>22.5</v>
       </c>
@@ -3220,7 +3230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>25</v>
       </c>
@@ -3228,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>27.5</v>
       </c>
@@ -3236,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -3261,9 +3271,9 @@
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -3271,7 +3281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>17.5</v>
       </c>
@@ -3279,7 +3289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -3287,7 +3297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>22.5</v>
       </c>
@@ -3295,7 +3305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>25</v>
       </c>
@@ -3303,7 +3313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>27.5</v>
       </c>
@@ -3311,7 +3321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>30</v>
       </c>
@@ -3319,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>32.5</v>
       </c>
@@ -3327,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>35</v>
       </c>
@@ -3335,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>37.5</v>
       </c>
@@ -3343,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
     </row>
@@ -3354,4 +3364,129 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f>_xlfn.STDEV.S(A1:A20)</f>
+        <v>2.8372521918222211</v>
+      </c>
+      <c r="B22">
+        <f>AVERAGE(A1:A20)</f>
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>